--- a/Camp Name Generator/Camp Names.xlsx
+++ b/Camp Name Generator/Camp Names.xlsx
@@ -5,38 +5,442 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirkmitchell/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirkmitchell/Documents/Coding/Basecamp/Camp Name Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FD8288-96B9-EE4B-8EC0-B62F2FCC04EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA48325-6C4D-A842-B021-DAA60354D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{F9105AD4-8636-ED43-9BC4-0BA2EF4BF261}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
+  <si>
+    <t>Kix</t>
+  </si>
+  <si>
+    <t>Abernethy</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Peddy</t>
+  </si>
+  <si>
+    <t>Berkley</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Romie</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Abbie</t>
+  </si>
+  <si>
+    <t>Anne Marie</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Kason</t>
+  </si>
+  <si>
+    <t>Bohn</t>
+  </si>
+  <si>
+    <t>Lakota</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Macee</t>
+  </si>
+  <si>
+    <t>Brazile</t>
+  </si>
+  <si>
+    <t>Landri</t>
+  </si>
+  <si>
+    <t>Bressler</t>
+  </si>
+  <si>
+    <t>Kaydee</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Gracie</t>
+  </si>
+  <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
+    <t>Kensington</t>
+  </si>
+  <si>
+    <t>Christner</t>
+  </si>
+  <si>
+    <t>Bowen</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Paizli</t>
+  </si>
+  <si>
+    <t>Contreras</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Cope</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Denney</t>
+  </si>
+  <si>
+    <t>Kiptyn</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>Enriquez</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>Fisk</t>
+  </si>
+  <si>
+    <t>Ryder</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Tackett</t>
+  </si>
+  <si>
+    <t>Brytton</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Kalli Kait</t>
+  </si>
+  <si>
+    <t>Griffitt</t>
+  </si>
+  <si>
+    <t>Ellie</t>
+  </si>
+  <si>
+    <t>Hanes</t>
+  </si>
+  <si>
+    <t>Kacen</t>
+  </si>
+  <si>
+    <t>Hartman</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Henson</t>
+  </si>
+  <si>
+    <t>Khloe</t>
+  </si>
+  <si>
+    <t>Holloway</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Daxten</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>McCoy</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Schaefer</t>
+  </si>
+  <si>
+    <t>Kelton</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Carsen</t>
+  </si>
+  <si>
+    <t>Kimberling</t>
+  </si>
+  <si>
+    <t>Colby</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Kade</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>Lantz</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>McCall</t>
+  </si>
+  <si>
+    <t>Manley</t>
+  </si>
+  <si>
+    <t>McCloskey</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>McNutt</t>
+  </si>
+  <si>
+    <t>Tyce</t>
+  </si>
+  <si>
+    <t>Miersma</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Maizie</t>
+  </si>
+  <si>
+    <t>Morath</t>
+  </si>
+  <si>
+    <t>Needham</t>
+  </si>
+  <si>
+    <t>Maddox</t>
+  </si>
+  <si>
+    <t>Paityn</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Quicksall</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Ramey</t>
+  </si>
+  <si>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Allie</t>
+  </si>
+  <si>
+    <t>Schilling</t>
+  </si>
+  <si>
+    <t>Sadie</t>
+  </si>
+  <si>
+    <t>Scivally</t>
+  </si>
+  <si>
+    <t>Shelton</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>Blakelee</t>
+  </si>
+  <si>
+    <t>Sherwood</t>
+  </si>
+  <si>
+    <t>Westyn</t>
+  </si>
+  <si>
+    <t>Swade</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Nariah</t>
+  </si>
+  <si>
+    <t>Tipton</t>
+  </si>
+  <si>
+    <t>Evie</t>
+  </si>
+  <si>
+    <t>Upchurch</t>
+  </si>
+  <si>
+    <t>Guinevere</t>
+  </si>
+  <si>
+    <t>Maeve</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t>Veal</t>
+  </si>
+  <si>
+    <t>Kashlyn</t>
+  </si>
+  <si>
+    <t>Vidaurre</t>
+  </si>
+  <si>
+    <t>Ansley</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Blair</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Chayil</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Maci</t>
+  </si>
+  <si>
+    <t>Weatherholt</t>
+  </si>
+  <si>
+    <t>Landry</t>
+  </si>
+  <si>
+    <t>Winegarner</t>
+  </si>
+  <si>
+    <t>Trak</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
   <si>
     <t>First</t>
   </si>
@@ -44,93 +448,63 @@
     <t>Last</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Shawn</t>
-  </si>
-  <si>
-    <t>Freeby</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>Remy</t>
-  </si>
-  <si>
-    <t>Allen</t>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
   <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>Charity</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Erik</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>Kirk</t>
-  </si>
-  <si>
-    <t>Lyz</t>
-  </si>
-  <si>
-    <t>Mckinney</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Simpson</t>
-  </si>
-  <si>
-    <t>Katie</t>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Picked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -138,13 +512,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,115 +883,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D61A46-0DE4-3542-AA31-816AC63CAE33}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44:P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C55" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="B63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;CElementary Camp - Registrants</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>